--- a/画面項目定義/ホテルアップデート画面項目定義.xlsx
+++ b/画面項目定義/ホテルアップデート画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37FCF88-EE52-4068-A75B-C5D640DF07B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED027C7-15CC-4295-BB05-72E9F3455E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4336FD85-CE7B-4A81-8E03-D231D6230B7B}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{4336FD85-CE7B-4A81-8E03-D231D6230B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,31 +149,6 @@
     <t>「戻る」と表示</t>
   </si>
   <si>
-    <r>
-      <t>前の画面に戻る（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>window.history.back()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を実行）。</t>
-    </r>
-  </si>
-  <si>
     <t>確認ダイアログ</t>
   </si>
   <si>
@@ -187,13 +162,20 @@
   </si>
   <si>
     <t>「はい」：フォーム送信、「いいえ」：ポップアップを閉じる。</t>
+  </si>
+  <si>
+    <t>ホテル情報更新メイン画面に遷移</t>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +192,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -593,13 +569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB39DED-31D9-45FA-9477-3264FF33E818}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="126">
+    <row r="2" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -639,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126">
+    <row r="3" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -659,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -679,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="126">
+    <row r="5" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -699,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="126">
+    <row r="6" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -719,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="108">
+    <row r="7" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -739,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="102.5">
+    <row r="8" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -756,31 +732,31 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="158.65" x14ac:dyDescent="0.7">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="162">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>